--- a/aspnet-core/src/tmss.Web.Host/wwwroot/Excel_Template/GoodsReceivedNote_Template.xlsx
+++ b/aspnet-core/src/tmss.Web.Host/wwwroot/Excel_Template/GoodsReceivedNote_Template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAnTotNghiep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\tmss\aspnet-core\src\tmss.Web.Host\wwwroot\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111E4235-5E9A-416B-AF2F-7D274AEC5D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="PN" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PN!$A$11:$I$35</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -141,7 +140,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -204,13 +203,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -332,6 +324,12 @@
     <font>
       <b/>
       <sz val="16"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -908,14 +906,14 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -923,26 +921,20 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -970,15 +962,15 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
@@ -1019,43 +1011,39 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1063,29 +1051,29 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1093,59 +1081,137 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1153,186 +1219,125 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal_Dichso" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal_DocSoUnicode" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal_Dichso" xfId="4"/>
+    <cellStyle name="Normal_DocSoUnicode" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1348,9 +1353,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1388,9 +1393,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1425,7 +1430,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1460,7 +1465,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1633,190 +1638,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:BY416"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="2" customWidth="1"/>
-    <col min="10" max="28" width="9.109375" style="2" customWidth="1"/>
-    <col min="29" max="55" width="9.109375" style="2" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="11.33203125" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="2" customWidth="1"/>
+    <col min="10" max="28" width="9.140625" style="2" customWidth="1"/>
+    <col min="29" max="55" width="9.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="11.28515625" style="2" hidden="1" customWidth="1"/>
     <col min="57" max="77" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="78" max="16384" width="9.109375" style="2" hidden="1"/>
+    <col min="78" max="16384" width="9.140625" style="2" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickTop="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="81" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="78" t="s">
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="79"/>
+      <c r="I1" s="85"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="82">
-        <f ca="1">TODAY()</f>
-        <v>45270</v>
-      </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="83" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="84"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.6">
-      <c r="A3" s="106"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="92" t="s">
+      <c r="I2" s="89"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75">
+      <c r="A3" s="109"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="84"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.6">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="84"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.6">
-      <c r="A5" s="40"/>
-      <c r="B5" s="42" t="s">
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="89"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="89"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75">
+      <c r="A5" s="37"/>
+      <c r="B5" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="44"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.6">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41" t="s">
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="41"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75">
+      <c r="A6" s="37"/>
+      <c r="B6" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="44"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.6">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41" t="s">
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75">
+      <c r="A7" s="37"/>
+      <c r="B7" s="38" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="44"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="46"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="41"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="97" t="s">
+      <c r="C9" s="81"/>
+      <c r="D9" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="111" t="s">
+      <c r="F9" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="112"/>
-      <c r="H9" s="72" t="s">
+      <c r="G9" s="99"/>
+      <c r="H9" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="93" t="s">
+      <c r="I9" s="95" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="27.6">
-      <c r="A10" s="105"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="8" t="s">
+    <row r="10" spans="1:9" ht="28.5">
+      <c r="A10" s="108"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="94"/>
-    </row>
-    <row r="11" spans="1:9" ht="13.8">
-      <c r="A11" s="47" t="s">
+      <c r="H10" s="79"/>
+      <c r="I10" s="96"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.25">
+      <c r="A11" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="96"/>
+      <c r="C11" s="101"/>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1832,255 +1835,301 @@
       <c r="H11" s="1">
         <v>3</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="45">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="49"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="50"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="47"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="49"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="50"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="47"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="49"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="50"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="47"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="49"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="50"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="47"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="49"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="50"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="47"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="49"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="50"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="47"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="49"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="50"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="47"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="49"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="50"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="47"/>
     </row>
     <row r="20" spans="1:9" ht="12" customHeight="1">
-      <c r="A20" s="55"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="56"/>
-    </row>
-    <row r="21" spans="1:9" ht="14.4" thickBot="1">
-      <c r="A21" s="57"/>
-      <c r="B21" s="109" t="s">
+      <c r="A20" s="52"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="53"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A21" s="54"/>
+      <c r="B21" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="16" t="s">
+      <c r="C21" s="113"/>
+      <c r="D21" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="15">
         <f>SUM(F12:F20)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="15">
         <f>SUM(G12:G20)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="58">
+      <c r="I21" s="55">
         <f>SUM(I12:I20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.4" thickTop="1">
-      <c r="A22" s="59"/>
-      <c r="B22" s="60" t="s">
+    <row r="22" spans="1:9" ht="19.5" customHeight="1" thickTop="1">
+      <c r="A22" s="56"/>
+      <c r="B22" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="62"/>
-    </row>
-    <row r="23" spans="1:9" ht="13.8">
-      <c r="A23" s="59"/>
-      <c r="B23" s="60" t="s">
+      <c r="C22" s="49"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="59"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.25">
+      <c r="A23" s="56"/>
+      <c r="B23" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="63"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="60"/>
     </row>
     <row r="24" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A24" s="59"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="62"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="59"/>
     </row>
     <row r="25" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A25" s="59"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
-    </row>
-    <row r="26" spans="1:9" ht="13.8">
-      <c r="A26" s="66"/>
-      <c r="B26" s="67" t="s">
+      <c r="A25" s="56"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="59"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.25">
+      <c r="A26" s="63"/>
+      <c r="B26" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="108" t="s">
+      <c r="C26" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="80" t="s">
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80" t="s">
+      <c r="G26" s="86"/>
+      <c r="H26" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="99"/>
+      <c r="I26" s="97"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="51"/>
-      <c r="I27" s="53"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="71"/>
+      <c r="D27" s="73"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="I27" s="50"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="51"/>
-      <c r="I28" s="53"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="77"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="51"/>
-      <c r="I29" s="53"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="77"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="51"/>
-      <c r="I30" s="53"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="77"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="51"/>
-      <c r="I31" s="53"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="77"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="51"/>
-      <c r="I32" s="53"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="77"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="51"/>
-      <c r="I33" s="53"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="77"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="51"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="101"/>
-    </row>
-    <row r="35" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A35" s="54"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="71"/>
-    </row>
-    <row r="36" spans="1:9" ht="13.8" thickTop="1"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77"/>
+    </row>
+    <row r="35" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A35" s="51"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="66"/>
+    </row>
+    <row r="36" spans="1:9" ht="13.5" thickTop="1"/>
     <row r="37" spans="1:9"/>
     <row r="38" spans="1:9"/>
     <row r="39" spans="1:9"/>
@@ -2142,325 +2191,325 @@
     <row r="95"/>
     <row r="96"/>
     <row r="97"/>
-    <row r="127" spans="56:69" ht="13.8" hidden="1">
-      <c r="BD127" s="20">
+    <row r="127" spans="56:69" ht="15" hidden="1">
+      <c r="BD127" s="18">
         <f>I21</f>
         <v>0</v>
       </c>
-      <c r="BE127" s="21" t="str">
+      <c r="BE127" s="19" t="str">
         <f>RIGHT("000000000000"&amp;ROUND(BD127,0),12)</f>
         <v>000000000000</v>
       </c>
-      <c r="BF127" s="22">
+      <c r="BF127" s="20">
         <v>1</v>
       </c>
-      <c r="BG127" s="22">
+      <c r="BG127" s="20">
         <v>2</v>
       </c>
-      <c r="BH127" s="22">
+      <c r="BH127" s="20">
         <v>3</v>
       </c>
-      <c r="BI127" s="22">
+      <c r="BI127" s="20">
         <v>4</v>
       </c>
-      <c r="BJ127" s="22">
+      <c r="BJ127" s="20">
         <v>5</v>
       </c>
-      <c r="BK127" s="22">
+      <c r="BK127" s="20">
         <v>6</v>
       </c>
-      <c r="BL127" s="22">
+      <c r="BL127" s="20">
         <v>7</v>
       </c>
-      <c r="BM127" s="22">
+      <c r="BM127" s="20">
         <v>8</v>
       </c>
-      <c r="BN127" s="22">
+      <c r="BN127" s="20">
         <v>9</v>
       </c>
-      <c r="BO127" s="22">
+      <c r="BO127" s="20">
         <v>10</v>
       </c>
-      <c r="BP127" s="22">
+      <c r="BP127" s="20">
         <v>11</v>
       </c>
-      <c r="BQ127" s="22">
+      <c r="BQ127" s="20">
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="56:69" ht="13.8" hidden="1">
-      <c r="BD128" s="20"/>
-      <c r="BE128" s="21"/>
-      <c r="BF128" s="22"/>
-      <c r="BG128" s="22"/>
-      <c r="BH128" s="22"/>
-      <c r="BI128" s="22"/>
-      <c r="BJ128" s="22"/>
-      <c r="BK128" s="22"/>
-      <c r="BL128" s="22"/>
-      <c r="BM128" s="22"/>
-      <c r="BN128" s="22"/>
-      <c r="BO128" s="22"/>
-      <c r="BP128" s="22"/>
-      <c r="BQ128" s="22"/>
-    </row>
-    <row r="129" spans="56:69" ht="13.8" hidden="1">
-      <c r="BD129" s="23"/>
-      <c r="BE129" s="24"/>
-      <c r="BF129" s="25">
+    <row r="128" spans="56:69" ht="15" hidden="1">
+      <c r="BD128" s="18"/>
+      <c r="BE128" s="19"/>
+      <c r="BF128" s="20"/>
+      <c r="BG128" s="20"/>
+      <c r="BH128" s="20"/>
+      <c r="BI128" s="20"/>
+      <c r="BJ128" s="20"/>
+      <c r="BK128" s="20"/>
+      <c r="BL128" s="20"/>
+      <c r="BM128" s="20"/>
+      <c r="BN128" s="20"/>
+      <c r="BO128" s="20"/>
+      <c r="BP128" s="20"/>
+      <c r="BQ128" s="20"/>
+    </row>
+    <row r="129" spans="56:69" ht="15" hidden="1">
+      <c r="BD129" s="21"/>
+      <c r="BE129" s="22"/>
+      <c r="BF129" s="23">
         <f>VALUE(MID(BE127,BF127,1))</f>
         <v>0</v>
       </c>
-      <c r="BG129" s="25">
+      <c r="BG129" s="23">
         <f>VALUE(MID(BE127,BG127,1))</f>
         <v>0</v>
       </c>
-      <c r="BH129" s="25">
+      <c r="BH129" s="23">
         <f>VALUE(MID(BE127,BH127,1))</f>
         <v>0</v>
       </c>
-      <c r="BI129" s="25">
+      <c r="BI129" s="23">
         <f>VALUE(MID(BE127,BI127,1))</f>
         <v>0</v>
       </c>
-      <c r="BJ129" s="25">
+      <c r="BJ129" s="23">
         <f>VALUE(MID(BE127,BJ127,1))</f>
         <v>0</v>
       </c>
-      <c r="BK129" s="25">
+      <c r="BK129" s="23">
         <f>VALUE(MID(BE127,BK127,1))</f>
         <v>0</v>
       </c>
-      <c r="BL129" s="25">
+      <c r="BL129" s="23">
         <f>VALUE(MID(BE127,BL127,1))</f>
         <v>0</v>
       </c>
-      <c r="BM129" s="25">
+      <c r="BM129" s="23">
         <f>VALUE(MID(BE127,BM127,1))</f>
         <v>0</v>
       </c>
-      <c r="BN129" s="25">
+      <c r="BN129" s="23">
         <f>VALUE(MID(BE127,BN127,1))</f>
         <v>0</v>
       </c>
-      <c r="BO129" s="25">
+      <c r="BO129" s="23">
         <f>VALUE(MID(BE127,BO127,1))</f>
         <v>0</v>
       </c>
-      <c r="BP129" s="25">
+      <c r="BP129" s="23">
         <f>VALUE(MID(BE127,BP127,1))</f>
         <v>0</v>
       </c>
-      <c r="BQ129" s="25">
+      <c r="BQ129" s="23">
         <f>VALUE(MID(BE127,BQ127,1))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="56:69" ht="13.8" hidden="1">
-      <c r="BD130" s="23"/>
-      <c r="BE130" s="24"/>
-      <c r="BF130" s="25">
+    <row r="130" spans="56:69" ht="15" hidden="1">
+      <c r="BD130" s="21"/>
+      <c r="BE130" s="22"/>
+      <c r="BF130" s="23">
         <f>SUM(BF129:BF129)</f>
         <v>0</v>
       </c>
-      <c r="BG130" s="25">
+      <c r="BG130" s="23">
         <f>SUM(BF129:BG129)</f>
         <v>0</v>
       </c>
-      <c r="BH130" s="25">
+      <c r="BH130" s="23">
         <f>SUM(BF129:BH129)</f>
         <v>0</v>
       </c>
-      <c r="BI130" s="25">
+      <c r="BI130" s="23">
         <f>SUM(BI129:BI129)</f>
         <v>0</v>
       </c>
-      <c r="BJ130" s="25">
+      <c r="BJ130" s="23">
         <f>SUM(BI129:BJ129)</f>
         <v>0</v>
       </c>
-      <c r="BK130" s="25">
+      <c r="BK130" s="23">
         <f>SUM(BI129:BK129)</f>
         <v>0</v>
       </c>
-      <c r="BL130" s="25">
+      <c r="BL130" s="23">
         <f>SUM(BL129:BL129)</f>
         <v>0</v>
       </c>
-      <c r="BM130" s="25">
+      <c r="BM130" s="23">
         <f>SUM(BL129:BM129)</f>
         <v>0</v>
       </c>
-      <c r="BN130" s="25">
+      <c r="BN130" s="23">
         <f>SUM(BL129:BN129)</f>
         <v>0</v>
       </c>
-      <c r="BO130" s="25">
+      <c r="BO130" s="23">
         <f>SUM(BO129:BO129)</f>
         <v>0</v>
       </c>
-      <c r="BP130" s="25">
+      <c r="BP130" s="23">
         <f>SUM(BO129:BP129)</f>
         <v>0</v>
       </c>
-      <c r="BQ130" s="25">
+      <c r="BQ130" s="23">
         <f>SUM(BO129:BQ129)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="56:69" ht="13.8" hidden="1">
-      <c r="BD131" s="23"/>
-      <c r="BE131" s="26"/>
-      <c r="BF131" s="27" t="str">
+    <row r="131" spans="56:69" ht="15" hidden="1">
+      <c r="BD131" s="21"/>
+      <c r="BE131" s="24"/>
+      <c r="BF131" s="25" t="str">
         <f>IF(BF129=0,"",CHOOSE(BF129,"một","hai","ba","bốn","năm","sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="BG131" s="27" t="str">
+      <c r="BG131" s="25" t="str">
         <f>IF(BG129=0,IF(AND(BF129&lt;&gt;0,BH129&lt;&gt;0),"lẻ",""),CHOOSE(BG129,"mười","hai","ba","bốn","năm","sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="BH131" s="27" t="str">
+      <c r="BH131" s="25" t="str">
         <f>IF(BH129=0,"",CHOOSE(BH129,IF(BG129&gt;1,"mốt","một"),"hai","ba","bốn",IF(BG129=0,"năm","lăm"),"sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="BI131" s="27" t="str">
+      <c r="BI131" s="25" t="str">
         <f>IF(BI129=0,"",CHOOSE(BI129,"một","hai","ba","bốn","năm","sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="BJ131" s="27" t="str">
+      <c r="BJ131" s="25" t="str">
         <f>IF(BJ129=0,IF(AND(BI129&lt;&gt;0,BK129&lt;&gt;0),"lẻ",""),CHOOSE(BJ129,"mười","hai","ba","bốn","năm","sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="BK131" s="27" t="str">
+      <c r="BK131" s="25" t="str">
         <f>IF(BK129=0,"",CHOOSE(BK129,IF(BJ129&gt;1,"mốt","một"),"hai","ba","bốn",IF(BJ129=0,"năm","lăm"),"sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="BL131" s="27" t="str">
+      <c r="BL131" s="25" t="str">
         <f>IF(BL129=0,"",CHOOSE(BL129,"một","hai","ba","bốn","năm","sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="BM131" s="27" t="str">
+      <c r="BM131" s="25" t="str">
         <f>IF(BM129=0,IF(AND(BL129&lt;&gt;0,BN129&lt;&gt;0),"lẻ",""),CHOOSE(BM129,"mười","hai","ba","bốn","năm","sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="BN131" s="27" t="str">
+      <c r="BN131" s="25" t="str">
         <f>IF(BN129=0,"",CHOOSE(BN129,IF(BM129&gt;1,"mốt","một"),"hai","ba","bốn",IF(BM129=0,"năm","lăm"),"sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="BO131" s="27" t="str">
+      <c r="BO131" s="25" t="str">
         <f>IF(BO129=0,"",CHOOSE(BO129,"một","hai","ba","bốn","năm","sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="BP131" s="27" t="str">
+      <c r="BP131" s="25" t="str">
         <f>IF(BP129=0,IF(AND(BO129&lt;&gt;0,BQ129&lt;&gt;0),"lẻ",""),CHOOSE(BP129,"mười","hai","ba","bốn","năm","sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="BQ131" s="27" t="str">
+      <c r="BQ131" s="25" t="str">
         <f>IF(BQ129=0,"",CHOOSE(BQ129,IF(BP129&gt;1,"mốt","một"),"hai","ba","bốn",IF(BP129=0,"năm","lăm"),"sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
     </row>
-    <row r="132" spans="56:69" ht="13.8" hidden="1">
-      <c r="BD132" s="23"/>
-      <c r="BE132" s="26"/>
-      <c r="BF132" s="28" t="str">
+    <row r="132" spans="56:69" ht="15" hidden="1">
+      <c r="BD132" s="21"/>
+      <c r="BE132" s="24"/>
+      <c r="BF132" s="26" t="str">
         <f>IF(BF129=0,"","trăm")</f>
         <v/>
       </c>
-      <c r="BG132" s="28" t="str">
+      <c r="BG132" s="26" t="str">
         <f>IF(BG129=0,"",IF(BG129=1,"","mươi"))</f>
         <v/>
       </c>
-      <c r="BH132" s="28" t="str">
+      <c r="BH132" s="26" t="str">
         <f>IF(AND(BH129=0,BH130=0),"","tỷ")</f>
         <v/>
       </c>
-      <c r="BI132" s="28" t="str">
+      <c r="BI132" s="26" t="str">
         <f>IF(BI129=0,"","trăm")</f>
         <v/>
       </c>
-      <c r="BJ132" s="28" t="str">
+      <c r="BJ132" s="26" t="str">
         <f>IF(BJ129=0,"",IF(BJ129=1,"","mươi"))</f>
         <v/>
       </c>
-      <c r="BK132" s="28" t="str">
+      <c r="BK132" s="26" t="str">
         <f>IF(AND(BK129=0,BK130=0),"","triệu")</f>
         <v/>
       </c>
-      <c r="BL132" s="28" t="str">
+      <c r="BL132" s="26" t="str">
         <f>IF(BL129=0,"","trăm")</f>
         <v/>
       </c>
-      <c r="BM132" s="28" t="str">
+      <c r="BM132" s="26" t="str">
         <f>IF(BM129=0,"",IF(BM129=1,"","mươi"))</f>
         <v/>
       </c>
-      <c r="BN132" s="28" t="str">
+      <c r="BN132" s="26" t="str">
         <f>IF(AND(BN129=0,BN130=0),"","ngàn")</f>
         <v/>
       </c>
-      <c r="BO132" s="28" t="str">
+      <c r="BO132" s="26" t="str">
         <f>IF(BO129=0,"","trăm")</f>
         <v/>
       </c>
-      <c r="BP132" s="28" t="str">
+      <c r="BP132" s="26" t="str">
         <f>IF(BP129=0,"",IF(BP129=1,"","mươi"))</f>
         <v/>
       </c>
-      <c r="BQ132" s="28" t="s">
+      <c r="BQ132" s="26" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="56:69" ht="13.8" hidden="1">
-      <c r="BD133" s="23"/>
-      <c r="BE133" s="29" t="str">
+    <row r="133" spans="56:69" ht="15" hidden="1">
+      <c r="BD133" s="21"/>
+      <c r="BE133" s="27" t="str">
         <f>UPPER(LEFT(TRIM(IF(BD127=0,"không đồng.",BF131&amp;" "&amp;BF132&amp;" "&amp;BG131&amp;" "&amp;BG132&amp;" "&amp;BH131&amp;" "&amp;BH132&amp;" "&amp;BI131&amp;" "&amp;BI132&amp;" "&amp;BJ131&amp;" "&amp;BJ132&amp;" "&amp;BK131&amp;" "&amp;BK132&amp;" "&amp;BL131&amp;" "&amp;BL132&amp;" "&amp;BM131&amp;" "&amp;BM132&amp;" "&amp;BN131&amp;" "&amp;BN132&amp;" "&amp;BO131&amp;" "&amp;BO132&amp;" "&amp;BP131&amp;" "&amp;BP132&amp;" "&amp;BQ131&amp;" "&amp;BQ132)),1))&amp;RIGHT(TRIM(IF(BD127=0,"không đồng.",BF131&amp;" "&amp;BF132&amp;" "&amp;BG131&amp;" "&amp;BG132&amp;" "&amp;BH131&amp;" "&amp;BH132&amp;" "&amp;BI131&amp;" "&amp;BI132&amp;" "&amp;BJ131&amp;" "&amp;BJ132&amp;" "&amp;BK131&amp;" "&amp;BK132&amp;" "&amp;BL131&amp;" "&amp;BL132&amp;" "&amp;BM131&amp;" "&amp;BM132&amp;" "&amp;BN131&amp;" "&amp;BN132&amp;" "&amp;BO131&amp;" "&amp;BO132&amp;" "&amp;BP131&amp;" "&amp;BP132&amp;" "&amp;BQ131&amp;" "&amp;BQ132)),LEN(TRIM(IF(BD127=0,"không đồng.",BF131&amp;" "&amp;BF132&amp;" "&amp;BG131&amp;" "&amp;BG132&amp;" "&amp;BH131&amp;" "&amp;BH132&amp;" "&amp;BI131&amp;" "&amp;BI132&amp;" "&amp;BJ131&amp;" "&amp;BJ132&amp;" "&amp;BK131&amp;" "&amp;BK132&amp;" "&amp;BL131&amp;" "&amp;BL132&amp;" "&amp;BM131&amp;" "&amp;BM132&amp;" "&amp;BN131&amp;" "&amp;BN132&amp;" "&amp;BO131&amp;" "&amp;BO132&amp;" "&amp;BP131&amp;" "&amp;BP132&amp;" "&amp;BQ131&amp;" "&amp;BQ132)))-1)</f>
         <v>Không đồng.</v>
       </c>
-      <c r="BF133" s="26"/>
-      <c r="BG133" s="26"/>
-      <c r="BH133" s="26"/>
-      <c r="BI133" s="26"/>
-      <c r="BJ133" s="26"/>
-      <c r="BK133" s="26"/>
-      <c r="BL133" s="26"/>
-      <c r="BM133" s="26"/>
-      <c r="BN133" s="26"/>
-      <c r="BO133" s="26"/>
-      <c r="BP133" s="26"/>
-      <c r="BQ133" s="26"/>
-    </row>
-    <row r="134" spans="56:69" ht="13.8" hidden="1">
-      <c r="BD134" s="23"/>
-      <c r="BE134" s="23"/>
-      <c r="BF134" s="23"/>
-      <c r="BG134" s="23"/>
-      <c r="BH134" s="23"/>
-      <c r="BI134" s="23"/>
-      <c r="BJ134" s="23"/>
-      <c r="BK134" s="23"/>
-      <c r="BL134" s="23"/>
-      <c r="BM134" s="23"/>
-      <c r="BN134" s="23"/>
-      <c r="BO134" s="23"/>
-      <c r="BP134" s="23"/>
-      <c r="BQ134" s="23"/>
-    </row>
-    <row r="135" spans="56:69" ht="13.8" hidden="1">
-      <c r="BD135" s="23"/>
-      <c r="BE135" s="23"/>
-      <c r="BF135" s="23"/>
-      <c r="BG135" s="23"/>
-      <c r="BH135" s="23"/>
-      <c r="BI135" s="23"/>
-      <c r="BJ135" s="23"/>
-      <c r="BK135" s="23"/>
-      <c r="BL135" s="23"/>
-      <c r="BM135" s="23"/>
-      <c r="BN135" s="23"/>
-      <c r="BO135" s="23"/>
-      <c r="BP135" s="23"/>
-      <c r="BQ135" s="23"/>
+      <c r="BF133" s="24"/>
+      <c r="BG133" s="24"/>
+      <c r="BH133" s="24"/>
+      <c r="BI133" s="24"/>
+      <c r="BJ133" s="24"/>
+      <c r="BK133" s="24"/>
+      <c r="BL133" s="24"/>
+      <c r="BM133" s="24"/>
+      <c r="BN133" s="24"/>
+      <c r="BO133" s="24"/>
+      <c r="BP133" s="24"/>
+      <c r="BQ133" s="24"/>
+    </row>
+    <row r="134" spans="56:69" ht="15" hidden="1">
+      <c r="BD134" s="21"/>
+      <c r="BE134" s="21"/>
+      <c r="BF134" s="21"/>
+      <c r="BG134" s="21"/>
+      <c r="BH134" s="21"/>
+      <c r="BI134" s="21"/>
+      <c r="BJ134" s="21"/>
+      <c r="BK134" s="21"/>
+      <c r="BL134" s="21"/>
+      <c r="BM134" s="21"/>
+      <c r="BN134" s="21"/>
+      <c r="BO134" s="21"/>
+      <c r="BP134" s="21"/>
+      <c r="BQ134" s="21"/>
+    </row>
+    <row r="135" spans="56:69" ht="15" hidden="1">
+      <c r="BD135" s="21"/>
+      <c r="BE135" s="21"/>
+      <c r="BF135" s="21"/>
+      <c r="BG135" s="21"/>
+      <c r="BH135" s="21"/>
+      <c r="BI135" s="21"/>
+      <c r="BJ135" s="21"/>
+      <c r="BK135" s="21"/>
+      <c r="BL135" s="21"/>
+      <c r="BM135" s="21"/>
+      <c r="BN135" s="21"/>
+      <c r="BO135" s="21"/>
+      <c r="BP135" s="21"/>
+      <c r="BQ135" s="21"/>
     </row>
     <row r="136" spans="56:69"/>
     <row r="137" spans="56:69"/>
@@ -2745,7 +2794,7 @@
     <row r="416"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A11:I35" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A11:I35">
     <filterColumn colId="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="32">
@@ -2753,18 +2802,19 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F34:G34"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:G9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="F28:G34"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="C28:E34"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="H28:I34"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="B9:C10"/>
     <mergeCell ref="H1:I1"/>
@@ -2773,20 +2823,16 @@
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="H2:I4"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D3:E3"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
-  <dataValidations xWindow="1190" yWindow="356" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Excel.webkynang.vn" prompt="Mạng xã hội học excel hàng đầu Việt Nam" sqref="F3" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>OFFSET(DSPN,1,0,COUNTA(DS_PN),1)</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Excel.webkynang.vn" prompt="Mạng xã hội học excel hàng đầu Việt Nam" sqref="C26 F26:I26 F1:F2 F4:F25 G1:I25 C1:E25 J1:XFD1048576 A1:B1048576 C27:I1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+  <dataValidations xWindow="1190" yWindow="356" count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Excel.webkynang.vn" prompt="Mạng xã hội học excel hàng đầu Việt Nam" sqref="C26 F26:I26 F1:F2 G8:G25 E4:E25 F8:F25 J1:XFD1048576 C35:C1048576 C1:D25 E1:E2 H1:I25 G1:G6 F4:F6 H35:H1048576 I27 I35:I1048576 H27:H28 G35:G1048576 F35:F1048576 F27 D35:D1048576 B35:B1048576 D27 C27:C28 A1:A1048576 B1:B28 E27 E35:E1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>

--- a/aspnet-core/src/tmss.Web.Host/wwwroot/Excel_Template/GoodsReceivedNote_Template.xlsx
+++ b/aspnet-core/src/tmss.Web.Host/wwwroot/Excel_Template/GoodsReceivedNote_Template.xlsx
@@ -942,22 +942,10 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1077,9 +1065,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1097,13 +1082,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -1175,10 +1154,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1223,6 +1266,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1243,14 +1290,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1271,64 +1310,32 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1665,161 +1672,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickTop="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="87" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="84" t="s">
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="85"/>
+      <c r="I1" s="94"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="88" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="89"/>
+      <c r="I2" s="99"/>
     </row>
     <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="109"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="67" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="89"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="99"/>
     </row>
     <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="89"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="37"/>
-      <c r="B5" s="39" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37"/>
     </row>
     <row r="6" spans="1:9" ht="15.75">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:9" ht="15.75">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="41"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="37"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="43"/>
+      <c r="I8" s="39"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="102" t="s">
+      <c r="C9" s="90"/>
+      <c r="D9" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="102" t="s">
+      <c r="E9" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="98" t="s">
+      <c r="F9" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="99"/>
-      <c r="H9" s="78" t="s">
+      <c r="G9" s="107"/>
+      <c r="H9" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="95" t="s">
+      <c r="I9" s="103" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.5">
-      <c r="A10" s="108"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
       <c r="F10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="79"/>
-      <c r="I10" s="96"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="104"/>
     </row>
     <row r="11" spans="1:9" ht="14.25">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="101"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1835,299 +1842,299 @@
       <c r="H11" s="1">
         <v>3</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="46"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="106"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="47"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="112"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="46"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="94"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="47"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="112"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="46"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="94"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="85"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="47"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="112"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="46"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="94"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="47"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="112"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="46"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="94"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="47"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="112"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="46"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="94"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="47"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="112"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="46"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="94"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="47"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="112"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="46"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="94"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="47"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="112"/>
     </row>
     <row r="20" spans="1:9" ht="12" customHeight="1">
-      <c r="A20" s="52"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="53"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="113"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A21" s="54"/>
-      <c r="B21" s="112" t="s">
+      <c r="A21" s="48"/>
+      <c r="B21" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="14" t="s">
+      <c r="C21" s="75"/>
+      <c r="D21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="11">
         <f>SUM(F12:F20)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="11">
         <f>SUM(G12:G20)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="55">
+      <c r="I21" s="114">
         <f>SUM(I12:I20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="19.5" customHeight="1" thickTop="1">
-      <c r="A22" s="56"/>
-      <c r="B22" s="57" t="s">
+      <c r="A22" s="49"/>
+      <c r="B22" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="59"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
     </row>
     <row r="23" spans="1:9" ht="14.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="57" t="s">
+      <c r="A23" s="49"/>
+      <c r="B23" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="60"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="53"/>
     </row>
     <row r="24" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A24" s="56"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="52"/>
     </row>
     <row r="25" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A25" s="56"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="59"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="52"/>
     </row>
     <row r="26" spans="1:9" ht="14.25">
-      <c r="A26" s="63"/>
-      <c r="B26" s="64" t="s">
+      <c r="A26" s="56"/>
+      <c r="B26" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="111" t="s">
+      <c r="C26" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="86" t="s">
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86" t="s">
+      <c r="G26" s="95"/>
+      <c r="H26" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="97"/>
+      <c r="I26" s="105"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="48"/>
-      <c r="B27" s="71"/>
-      <c r="D27" s="73"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="I27" s="50"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="64"/>
+      <c r="D27" s="66"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="I27" s="45"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="48"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="77"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="86"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="48"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="77"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="86"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="48"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="77"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="86"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="48"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="77"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="86"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="48"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="77"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="86"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="48"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="77"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="86"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="48"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="77"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="86"/>
     </row>
     <row r="35" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A35" s="51"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="66"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="59"/>
     </row>
     <row r="36" spans="1:9" ht="13.5" thickTop="1"/>
     <row r="37" spans="1:9"/>
@@ -2192,324 +2199,324 @@
     <row r="96"/>
     <row r="97"/>
     <row r="127" spans="56:69" ht="15" hidden="1">
-      <c r="BD127" s="18">
+      <c r="BD127" s="14">
         <f>I21</f>
         <v>0</v>
       </c>
-      <c r="BE127" s="19" t="str">
+      <c r="BE127" s="15" t="str">
         <f>RIGHT("000000000000"&amp;ROUND(BD127,0),12)</f>
         <v>000000000000</v>
       </c>
-      <c r="BF127" s="20">
+      <c r="BF127" s="16">
         <v>1</v>
       </c>
-      <c r="BG127" s="20">
+      <c r="BG127" s="16">
         <v>2</v>
       </c>
-      <c r="BH127" s="20">
+      <c r="BH127" s="16">
         <v>3</v>
       </c>
-      <c r="BI127" s="20">
+      <c r="BI127" s="16">
         <v>4</v>
       </c>
-      <c r="BJ127" s="20">
+      <c r="BJ127" s="16">
         <v>5</v>
       </c>
-      <c r="BK127" s="20">
+      <c r="BK127" s="16">
         <v>6</v>
       </c>
-      <c r="BL127" s="20">
+      <c r="BL127" s="16">
         <v>7</v>
       </c>
-      <c r="BM127" s="20">
+      <c r="BM127" s="16">
         <v>8</v>
       </c>
-      <c r="BN127" s="20">
+      <c r="BN127" s="16">
         <v>9</v>
       </c>
-      <c r="BO127" s="20">
+      <c r="BO127" s="16">
         <v>10</v>
       </c>
-      <c r="BP127" s="20">
+      <c r="BP127" s="16">
         <v>11</v>
       </c>
-      <c r="BQ127" s="20">
+      <c r="BQ127" s="16">
         <v>12</v>
       </c>
     </row>
     <row r="128" spans="56:69" ht="15" hidden="1">
-      <c r="BD128" s="18"/>
-      <c r="BE128" s="19"/>
-      <c r="BF128" s="20"/>
-      <c r="BG128" s="20"/>
-      <c r="BH128" s="20"/>
-      <c r="BI128" s="20"/>
-      <c r="BJ128" s="20"/>
-      <c r="BK128" s="20"/>
-      <c r="BL128" s="20"/>
-      <c r="BM128" s="20"/>
-      <c r="BN128" s="20"/>
-      <c r="BO128" s="20"/>
-      <c r="BP128" s="20"/>
-      <c r="BQ128" s="20"/>
+      <c r="BD128" s="14"/>
+      <c r="BE128" s="15"/>
+      <c r="BF128" s="16"/>
+      <c r="BG128" s="16"/>
+      <c r="BH128" s="16"/>
+      <c r="BI128" s="16"/>
+      <c r="BJ128" s="16"/>
+      <c r="BK128" s="16"/>
+      <c r="BL128" s="16"/>
+      <c r="BM128" s="16"/>
+      <c r="BN128" s="16"/>
+      <c r="BO128" s="16"/>
+      <c r="BP128" s="16"/>
+      <c r="BQ128" s="16"/>
     </row>
     <row r="129" spans="56:69" ht="15" hidden="1">
-      <c r="BD129" s="21"/>
-      <c r="BE129" s="22"/>
-      <c r="BF129" s="23">
+      <c r="BD129" s="17"/>
+      <c r="BE129" s="18"/>
+      <c r="BF129" s="19">
         <f>VALUE(MID(BE127,BF127,1))</f>
         <v>0</v>
       </c>
-      <c r="BG129" s="23">
+      <c r="BG129" s="19">
         <f>VALUE(MID(BE127,BG127,1))</f>
         <v>0</v>
       </c>
-      <c r="BH129" s="23">
+      <c r="BH129" s="19">
         <f>VALUE(MID(BE127,BH127,1))</f>
         <v>0</v>
       </c>
-      <c r="BI129" s="23">
+      <c r="BI129" s="19">
         <f>VALUE(MID(BE127,BI127,1))</f>
         <v>0</v>
       </c>
-      <c r="BJ129" s="23">
+      <c r="BJ129" s="19">
         <f>VALUE(MID(BE127,BJ127,1))</f>
         <v>0</v>
       </c>
-      <c r="BK129" s="23">
+      <c r="BK129" s="19">
         <f>VALUE(MID(BE127,BK127,1))</f>
         <v>0</v>
       </c>
-      <c r="BL129" s="23">
+      <c r="BL129" s="19">
         <f>VALUE(MID(BE127,BL127,1))</f>
         <v>0</v>
       </c>
-      <c r="BM129" s="23">
+      <c r="BM129" s="19">
         <f>VALUE(MID(BE127,BM127,1))</f>
         <v>0</v>
       </c>
-      <c r="BN129" s="23">
+      <c r="BN129" s="19">
         <f>VALUE(MID(BE127,BN127,1))</f>
         <v>0</v>
       </c>
-      <c r="BO129" s="23">
+      <c r="BO129" s="19">
         <f>VALUE(MID(BE127,BO127,1))</f>
         <v>0</v>
       </c>
-      <c r="BP129" s="23">
+      <c r="BP129" s="19">
         <f>VALUE(MID(BE127,BP127,1))</f>
         <v>0</v>
       </c>
-      <c r="BQ129" s="23">
+      <c r="BQ129" s="19">
         <f>VALUE(MID(BE127,BQ127,1))</f>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="56:69" ht="15" hidden="1">
-      <c r="BD130" s="21"/>
-      <c r="BE130" s="22"/>
-      <c r="BF130" s="23">
+      <c r="BD130" s="17"/>
+      <c r="BE130" s="18"/>
+      <c r="BF130" s="19">
         <f>SUM(BF129:BF129)</f>
         <v>0</v>
       </c>
-      <c r="BG130" s="23">
+      <c r="BG130" s="19">
         <f>SUM(BF129:BG129)</f>
         <v>0</v>
       </c>
-      <c r="BH130" s="23">
+      <c r="BH130" s="19">
         <f>SUM(BF129:BH129)</f>
         <v>0</v>
       </c>
-      <c r="BI130" s="23">
+      <c r="BI130" s="19">
         <f>SUM(BI129:BI129)</f>
         <v>0</v>
       </c>
-      <c r="BJ130" s="23">
+      <c r="BJ130" s="19">
         <f>SUM(BI129:BJ129)</f>
         <v>0</v>
       </c>
-      <c r="BK130" s="23">
+      <c r="BK130" s="19">
         <f>SUM(BI129:BK129)</f>
         <v>0</v>
       </c>
-      <c r="BL130" s="23">
+      <c r="BL130" s="19">
         <f>SUM(BL129:BL129)</f>
         <v>0</v>
       </c>
-      <c r="BM130" s="23">
+      <c r="BM130" s="19">
         <f>SUM(BL129:BM129)</f>
         <v>0</v>
       </c>
-      <c r="BN130" s="23">
+      <c r="BN130" s="19">
         <f>SUM(BL129:BN129)</f>
         <v>0</v>
       </c>
-      <c r="BO130" s="23">
+      <c r="BO130" s="19">
         <f>SUM(BO129:BO129)</f>
         <v>0</v>
       </c>
-      <c r="BP130" s="23">
+      <c r="BP130" s="19">
         <f>SUM(BO129:BP129)</f>
         <v>0</v>
       </c>
-      <c r="BQ130" s="23">
+      <c r="BQ130" s="19">
         <f>SUM(BO129:BQ129)</f>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="56:69" ht="15" hidden="1">
-      <c r="BD131" s="21"/>
-      <c r="BE131" s="24"/>
-      <c r="BF131" s="25" t="str">
+      <c r="BD131" s="17"/>
+      <c r="BE131" s="20"/>
+      <c r="BF131" s="21" t="str">
         <f>IF(BF129=0,"",CHOOSE(BF129,"một","hai","ba","bốn","năm","sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="BG131" s="25" t="str">
+      <c r="BG131" s="21" t="str">
         <f>IF(BG129=0,IF(AND(BF129&lt;&gt;0,BH129&lt;&gt;0),"lẻ",""),CHOOSE(BG129,"mười","hai","ba","bốn","năm","sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="BH131" s="25" t="str">
+      <c r="BH131" s="21" t="str">
         <f>IF(BH129=0,"",CHOOSE(BH129,IF(BG129&gt;1,"mốt","một"),"hai","ba","bốn",IF(BG129=0,"năm","lăm"),"sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="BI131" s="25" t="str">
+      <c r="BI131" s="21" t="str">
         <f>IF(BI129=0,"",CHOOSE(BI129,"một","hai","ba","bốn","năm","sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="BJ131" s="25" t="str">
+      <c r="BJ131" s="21" t="str">
         <f>IF(BJ129=0,IF(AND(BI129&lt;&gt;0,BK129&lt;&gt;0),"lẻ",""),CHOOSE(BJ129,"mười","hai","ba","bốn","năm","sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="BK131" s="25" t="str">
+      <c r="BK131" s="21" t="str">
         <f>IF(BK129=0,"",CHOOSE(BK129,IF(BJ129&gt;1,"mốt","một"),"hai","ba","bốn",IF(BJ129=0,"năm","lăm"),"sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="BL131" s="25" t="str">
+      <c r="BL131" s="21" t="str">
         <f>IF(BL129=0,"",CHOOSE(BL129,"một","hai","ba","bốn","năm","sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="BM131" s="25" t="str">
+      <c r="BM131" s="21" t="str">
         <f>IF(BM129=0,IF(AND(BL129&lt;&gt;0,BN129&lt;&gt;0),"lẻ",""),CHOOSE(BM129,"mười","hai","ba","bốn","năm","sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="BN131" s="25" t="str">
+      <c r="BN131" s="21" t="str">
         <f>IF(BN129=0,"",CHOOSE(BN129,IF(BM129&gt;1,"mốt","một"),"hai","ba","bốn",IF(BM129=0,"năm","lăm"),"sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="BO131" s="25" t="str">
+      <c r="BO131" s="21" t="str">
         <f>IF(BO129=0,"",CHOOSE(BO129,"một","hai","ba","bốn","năm","sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="BP131" s="25" t="str">
+      <c r="BP131" s="21" t="str">
         <f>IF(BP129=0,IF(AND(BO129&lt;&gt;0,BQ129&lt;&gt;0),"lẻ",""),CHOOSE(BP129,"mười","hai","ba","bốn","năm","sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="BQ131" s="25" t="str">
+      <c r="BQ131" s="21" t="str">
         <f>IF(BQ129=0,"",CHOOSE(BQ129,IF(BP129&gt;1,"mốt","một"),"hai","ba","bốn",IF(BP129=0,"năm","lăm"),"sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
     </row>
     <row r="132" spans="56:69" ht="15" hidden="1">
-      <c r="BD132" s="21"/>
-      <c r="BE132" s="24"/>
-      <c r="BF132" s="26" t="str">
+      <c r="BD132" s="17"/>
+      <c r="BE132" s="20"/>
+      <c r="BF132" s="22" t="str">
         <f>IF(BF129=0,"","trăm")</f>
         <v/>
       </c>
-      <c r="BG132" s="26" t="str">
+      <c r="BG132" s="22" t="str">
         <f>IF(BG129=0,"",IF(BG129=1,"","mươi"))</f>
         <v/>
       </c>
-      <c r="BH132" s="26" t="str">
+      <c r="BH132" s="22" t="str">
         <f>IF(AND(BH129=0,BH130=0),"","tỷ")</f>
         <v/>
       </c>
-      <c r="BI132" s="26" t="str">
+      <c r="BI132" s="22" t="str">
         <f>IF(BI129=0,"","trăm")</f>
         <v/>
       </c>
-      <c r="BJ132" s="26" t="str">
+      <c r="BJ132" s="22" t="str">
         <f>IF(BJ129=0,"",IF(BJ129=1,"","mươi"))</f>
         <v/>
       </c>
-      <c r="BK132" s="26" t="str">
+      <c r="BK132" s="22" t="str">
         <f>IF(AND(BK129=0,BK130=0),"","triệu")</f>
         <v/>
       </c>
-      <c r="BL132" s="26" t="str">
+      <c r="BL132" s="22" t="str">
         <f>IF(BL129=0,"","trăm")</f>
         <v/>
       </c>
-      <c r="BM132" s="26" t="str">
+      <c r="BM132" s="22" t="str">
         <f>IF(BM129=0,"",IF(BM129=1,"","mươi"))</f>
         <v/>
       </c>
-      <c r="BN132" s="26" t="str">
+      <c r="BN132" s="22" t="str">
         <f>IF(AND(BN129=0,BN130=0),"","ngàn")</f>
         <v/>
       </c>
-      <c r="BO132" s="26" t="str">
+      <c r="BO132" s="22" t="str">
         <f>IF(BO129=0,"","trăm")</f>
         <v/>
       </c>
-      <c r="BP132" s="26" t="str">
+      <c r="BP132" s="22" t="str">
         <f>IF(BP129=0,"",IF(BP129=1,"","mươi"))</f>
         <v/>
       </c>
-      <c r="BQ132" s="26" t="s">
+      <c r="BQ132" s="22" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="56:69" ht="15" hidden="1">
-      <c r="BD133" s="21"/>
-      <c r="BE133" s="27" t="str">
+      <c r="BD133" s="17"/>
+      <c r="BE133" s="23" t="str">
         <f>UPPER(LEFT(TRIM(IF(BD127=0,"không đồng.",BF131&amp;" "&amp;BF132&amp;" "&amp;BG131&amp;" "&amp;BG132&amp;" "&amp;BH131&amp;" "&amp;BH132&amp;" "&amp;BI131&amp;" "&amp;BI132&amp;" "&amp;BJ131&amp;" "&amp;BJ132&amp;" "&amp;BK131&amp;" "&amp;BK132&amp;" "&amp;BL131&amp;" "&amp;BL132&amp;" "&amp;BM131&amp;" "&amp;BM132&amp;" "&amp;BN131&amp;" "&amp;BN132&amp;" "&amp;BO131&amp;" "&amp;BO132&amp;" "&amp;BP131&amp;" "&amp;BP132&amp;" "&amp;BQ131&amp;" "&amp;BQ132)),1))&amp;RIGHT(TRIM(IF(BD127=0,"không đồng.",BF131&amp;" "&amp;BF132&amp;" "&amp;BG131&amp;" "&amp;BG132&amp;" "&amp;BH131&amp;" "&amp;BH132&amp;" "&amp;BI131&amp;" "&amp;BI132&amp;" "&amp;BJ131&amp;" "&amp;BJ132&amp;" "&amp;BK131&amp;" "&amp;BK132&amp;" "&amp;BL131&amp;" "&amp;BL132&amp;" "&amp;BM131&amp;" "&amp;BM132&amp;" "&amp;BN131&amp;" "&amp;BN132&amp;" "&amp;BO131&amp;" "&amp;BO132&amp;" "&amp;BP131&amp;" "&amp;BP132&amp;" "&amp;BQ131&amp;" "&amp;BQ132)),LEN(TRIM(IF(BD127=0,"không đồng.",BF131&amp;" "&amp;BF132&amp;" "&amp;BG131&amp;" "&amp;BG132&amp;" "&amp;BH131&amp;" "&amp;BH132&amp;" "&amp;BI131&amp;" "&amp;BI132&amp;" "&amp;BJ131&amp;" "&amp;BJ132&amp;" "&amp;BK131&amp;" "&amp;BK132&amp;" "&amp;BL131&amp;" "&amp;BL132&amp;" "&amp;BM131&amp;" "&amp;BM132&amp;" "&amp;BN131&amp;" "&amp;BN132&amp;" "&amp;BO131&amp;" "&amp;BO132&amp;" "&amp;BP131&amp;" "&amp;BP132&amp;" "&amp;BQ131&amp;" "&amp;BQ132)))-1)</f>
         <v>Không đồng.</v>
       </c>
-      <c r="BF133" s="24"/>
-      <c r="BG133" s="24"/>
-      <c r="BH133" s="24"/>
-      <c r="BI133" s="24"/>
-      <c r="BJ133" s="24"/>
-      <c r="BK133" s="24"/>
-      <c r="BL133" s="24"/>
-      <c r="BM133" s="24"/>
-      <c r="BN133" s="24"/>
-      <c r="BO133" s="24"/>
-      <c r="BP133" s="24"/>
-      <c r="BQ133" s="24"/>
+      <c r="BF133" s="20"/>
+      <c r="BG133" s="20"/>
+      <c r="BH133" s="20"/>
+      <c r="BI133" s="20"/>
+      <c r="BJ133" s="20"/>
+      <c r="BK133" s="20"/>
+      <c r="BL133" s="20"/>
+      <c r="BM133" s="20"/>
+      <c r="BN133" s="20"/>
+      <c r="BO133" s="20"/>
+      <c r="BP133" s="20"/>
+      <c r="BQ133" s="20"/>
     </row>
     <row r="134" spans="56:69" ht="15" hidden="1">
-      <c r="BD134" s="21"/>
-      <c r="BE134" s="21"/>
-      <c r="BF134" s="21"/>
-      <c r="BG134" s="21"/>
-      <c r="BH134" s="21"/>
-      <c r="BI134" s="21"/>
-      <c r="BJ134" s="21"/>
-      <c r="BK134" s="21"/>
-      <c r="BL134" s="21"/>
-      <c r="BM134" s="21"/>
-      <c r="BN134" s="21"/>
-      <c r="BO134" s="21"/>
-      <c r="BP134" s="21"/>
-      <c r="BQ134" s="21"/>
+      <c r="BD134" s="17"/>
+      <c r="BE134" s="17"/>
+      <c r="BF134" s="17"/>
+      <c r="BG134" s="17"/>
+      <c r="BH134" s="17"/>
+      <c r="BI134" s="17"/>
+      <c r="BJ134" s="17"/>
+      <c r="BK134" s="17"/>
+      <c r="BL134" s="17"/>
+      <c r="BM134" s="17"/>
+      <c r="BN134" s="17"/>
+      <c r="BO134" s="17"/>
+      <c r="BP134" s="17"/>
+      <c r="BQ134" s="17"/>
     </row>
     <row r="135" spans="56:69" ht="15" hidden="1">
-      <c r="BD135" s="21"/>
-      <c r="BE135" s="21"/>
-      <c r="BF135" s="21"/>
-      <c r="BG135" s="21"/>
-      <c r="BH135" s="21"/>
-      <c r="BI135" s="21"/>
-      <c r="BJ135" s="21"/>
-      <c r="BK135" s="21"/>
-      <c r="BL135" s="21"/>
-      <c r="BM135" s="21"/>
-      <c r="BN135" s="21"/>
-      <c r="BO135" s="21"/>
-      <c r="BP135" s="21"/>
-      <c r="BQ135" s="21"/>
+      <c r="BD135" s="17"/>
+      <c r="BE135" s="17"/>
+      <c r="BF135" s="17"/>
+      <c r="BG135" s="17"/>
+      <c r="BH135" s="17"/>
+      <c r="BI135" s="17"/>
+      <c r="BJ135" s="17"/>
+      <c r="BK135" s="17"/>
+      <c r="BL135" s="17"/>
+      <c r="BM135" s="17"/>
+      <c r="BN135" s="17"/>
+      <c r="BO135" s="17"/>
+      <c r="BP135" s="17"/>
+      <c r="BQ135" s="17"/>
     </row>
     <row r="136" spans="56:69"/>
     <row r="137" spans="56:69"/>
@@ -2798,22 +2805,6 @@
     <filterColumn colId="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="32">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="F28:G34"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="C28:E34"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
     <mergeCell ref="H28:I34"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="B9:C10"/>
@@ -2830,6 +2821,22 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F28:G34"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="C28:E34"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <dataValidations xWindow="1190" yWindow="356" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Excel.webkynang.vn" prompt="Mạng xã hội học excel hàng đầu Việt Nam" sqref="C26 F26:I26 F1:F2 G8:G25 E4:E25 F8:F25 J1:XFD1048576 C35:C1048576 C1:D25 E1:E2 H1:I25 G1:G6 F4:F6 H35:H1048576 I27 I35:I1048576 H27:H28 G35:G1048576 F35:F1048576 F27 D35:D1048576 B35:B1048576 D27 C27:C28 A1:A1048576 B1:B28 E27 E35:E1048576"/>

--- a/aspnet-core/src/tmss.Web.Host/wwwroot/Excel_Template/GoodsReceivedNote_Template.xlsx
+++ b/aspnet-core/src/tmss.Web.Host/wwwroot/Excel_Template/GoodsReceivedNote_Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\tmss\aspnet-core\src\tmss.Web.Host\wwwroot\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAnTotNghiep\DoAnTotNghiep\aspnet-core\src\tmss.Web.Host\wwwroot\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D5610D-DB92-4A93-A276-633100DB92EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PN" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PN!$A$11:$I$35</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -140,7 +141,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -911,7 +912,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1126,13 +1127,13 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -1151,7 +1152,140 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1200,151 +1334,15 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal_Dichso" xfId="4"/>
-    <cellStyle name="Normal_DocSoUnicode" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal_Dichso" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal_DocSoUnicode" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1360,9 +1358,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1400,9 +1398,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1437,7 +1435,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1472,7 +1470,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1645,30 +1643,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:BY416"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="2" customWidth="1"/>
-    <col min="10" max="28" width="9.140625" style="2" customWidth="1"/>
-    <col min="29" max="55" width="9.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="11.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" style="2" customWidth="1"/>
+    <col min="10" max="28" width="9.109375" style="2" customWidth="1"/>
+    <col min="29" max="55" width="9.109375" style="2" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="11.33203125" style="2" hidden="1" customWidth="1"/>
     <col min="57" max="77" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="78" max="16384" width="9.140625" style="2" hidden="1"/>
+    <col min="78" max="16384" width="9.109375" style="2" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickTop="1">
@@ -1677,16 +1675,16 @@
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="26"/>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
       <c r="G1" s="27"/>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="94"/>
+      <c r="I1" s="84"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2" s="28" t="s">
@@ -1694,29 +1692,29 @@
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="30"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="31"/>
-      <c r="H2" s="98" t="s">
+      <c r="H2" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="99"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
+      <c r="I2" s="89"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.6">
+      <c r="A3" s="104"/>
+      <c r="B3" s="105"/>
       <c r="C3" s="32"/>
       <c r="D3" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
       <c r="G3" s="31"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="99"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75">
+      <c r="H3" s="88"/>
+      <c r="I3" s="89"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.6">
       <c r="A4" s="33"/>
       <c r="B4" s="34"/>
       <c r="C4" s="32"/>
@@ -1724,23 +1722,23 @@
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
       <c r="G4" s="31"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="99"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
+      <c r="H4" s="88"/>
+      <c r="I4" s="89"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.6">
       <c r="A5" s="33"/>
       <c r="B5" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
       <c r="H5" s="36"/>
       <c r="I5" s="37"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75">
+    <row r="6" spans="1:9" ht="15.6">
       <c r="A6" s="33"/>
       <c r="B6" s="34" t="s">
         <v>24</v>
@@ -1753,7 +1751,7 @@
       <c r="H6" s="38"/>
       <c r="I6" s="37"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75">
+    <row r="7" spans="1:9" ht="15.6">
       <c r="A7" s="33"/>
       <c r="B7" s="34" t="s">
         <v>23</v>
@@ -1768,7 +1766,7 @@
       <c r="H7" s="32"/>
       <c r="I7" s="37"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" thickBot="1">
+    <row r="8" spans="1:9" ht="16.2" thickBot="1">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
       <c r="C8" s="4"/>
@@ -1780,53 +1778,53 @@
       <c r="I8" s="39"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="76" t="s">
+      <c r="C9" s="80"/>
+      <c r="D9" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="106" t="s">
+      <c r="F9" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="107"/>
-      <c r="H9" s="87" t="s">
+      <c r="G9" s="99"/>
+      <c r="H9" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="103" t="s">
+      <c r="I9" s="95" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="28.5">
-      <c r="A10" s="70"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
+    <row r="10" spans="1:9" ht="27.6">
+      <c r="A10" s="103"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
       <c r="F10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="88"/>
-      <c r="I10" s="104"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.25">
+      <c r="H10" s="78"/>
+      <c r="I10" s="96"/>
+    </row>
+    <row r="11" spans="1:9" ht="13.8">
       <c r="A11" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="79"/>
+      <c r="C11" s="112"/>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1848,109 +1846,109 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="42"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="83"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="101"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="112"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="72"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="42"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="85"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="112"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="72"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="42"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="85"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="94"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="112"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="72"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="42"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="94"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="112"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="72"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="42"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="85"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="94"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="112"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="72"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="42"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="94"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="112"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="72"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="42"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="85"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="94"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="112"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="72"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="42"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="85"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="94"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="112"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="72"/>
     </row>
     <row r="20" spans="1:9" ht="12" customHeight="1">
       <c r="A20" s="47"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="102"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="92"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="113"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1">
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="73"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.4" thickBot="1">
       <c r="A21" s="48"/>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="75"/>
+      <c r="C21" s="108"/>
       <c r="D21" s="10" t="s">
         <v>7</v>
       </c>
@@ -1968,7 +1966,7 @@
       <c r="H21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="114">
+      <c r="I21" s="74">
         <f>SUM(I12:I20)</f>
         <v>0</v>
       </c>
@@ -1986,7 +1984,7 @@
       <c r="H22" s="51"/>
       <c r="I22" s="52"/>
     </row>
-    <row r="23" spans="1:9" ht="14.25">
+    <row r="23" spans="1:9" ht="13.8">
       <c r="A23" s="49"/>
       <c r="B23" s="50" t="s">
         <v>5</v>
@@ -2021,111 +2019,109 @@
       <c r="H25" s="51"/>
       <c r="I25" s="52"/>
     </row>
-    <row r="26" spans="1:9" ht="14.25">
+    <row r="26" spans="1:9" ht="13.8">
       <c r="A26" s="56"/>
       <c r="B26" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="95" t="s">
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95" t="s">
+      <c r="G26" s="85"/>
+      <c r="H26" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="105"/>
+      <c r="I26" s="97"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="43"/>
       <c r="B27" s="64"/>
       <c r="D27" s="66"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
       <c r="I27" s="45"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="43"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="86"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="76"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="43"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="86"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="43"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="86"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="76"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="43"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="86"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="76"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="43"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="86"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="76"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="43"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="86"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="76"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="43"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="86"/>
-    </row>
-    <row r="35" spans="1:9" ht="13.5" thickBot="1">
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="76"/>
+    </row>
+    <row r="35" spans="1:9" ht="13.8" thickBot="1">
       <c r="A35" s="46"/>
       <c r="B35" s="65"/>
       <c r="C35" s="58"/>
@@ -2136,7 +2132,7 @@
       <c r="H35" s="58"/>
       <c r="I35" s="59"/>
     </row>
-    <row r="36" spans="1:9" ht="13.5" thickTop="1"/>
+    <row r="36" spans="1:9" ht="13.8" thickTop="1"/>
     <row r="37" spans="1:9"/>
     <row r="38" spans="1:9"/>
     <row r="39" spans="1:9"/>
@@ -2198,7 +2194,7 @@
     <row r="95"/>
     <row r="96"/>
     <row r="97"/>
-    <row r="127" spans="56:69" ht="15" hidden="1">
+    <row r="127" spans="56:69" ht="13.8" hidden="1">
       <c r="BD127" s="14">
         <f>I21</f>
         <v>0</v>
@@ -2244,7 +2240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="56:69" ht="15" hidden="1">
+    <row r="128" spans="56:69" ht="13.8" hidden="1">
       <c r="BD128" s="14"/>
       <c r="BE128" s="15"/>
       <c r="BF128" s="16"/>
@@ -2260,7 +2256,7 @@
       <c r="BP128" s="16"/>
       <c r="BQ128" s="16"/>
     </row>
-    <row r="129" spans="56:69" ht="15" hidden="1">
+    <row r="129" spans="56:69" ht="13.8" hidden="1">
       <c r="BD129" s="17"/>
       <c r="BE129" s="18"/>
       <c r="BF129" s="19">
@@ -2312,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="56:69" ht="15" hidden="1">
+    <row r="130" spans="56:69" ht="13.8" hidden="1">
       <c r="BD130" s="17"/>
       <c r="BE130" s="18"/>
       <c r="BF130" s="19">
@@ -2364,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="56:69" ht="15" hidden="1">
+    <row r="131" spans="56:69" ht="13.8" hidden="1">
       <c r="BD131" s="17"/>
       <c r="BE131" s="20"/>
       <c r="BF131" s="21" t="str">
@@ -2416,7 +2412,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="56:69" ht="15" hidden="1">
+    <row r="132" spans="56:69" ht="13.8" hidden="1">
       <c r="BD132" s="17"/>
       <c r="BE132" s="20"/>
       <c r="BF132" s="22" t="str">
@@ -2467,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="56:69" ht="15" hidden="1">
+    <row r="133" spans="56:69" ht="13.8" hidden="1">
       <c r="BD133" s="17"/>
       <c r="BE133" s="23" t="str">
         <f>UPPER(LEFT(TRIM(IF(BD127=0,"không đồng.",BF131&amp;" "&amp;BF132&amp;" "&amp;BG131&amp;" "&amp;BG132&amp;" "&amp;BH131&amp;" "&amp;BH132&amp;" "&amp;BI131&amp;" "&amp;BI132&amp;" "&amp;BJ131&amp;" "&amp;BJ132&amp;" "&amp;BK131&amp;" "&amp;BK132&amp;" "&amp;BL131&amp;" "&amp;BL132&amp;" "&amp;BM131&amp;" "&amp;BM132&amp;" "&amp;BN131&amp;" "&amp;BN132&amp;" "&amp;BO131&amp;" "&amp;BO132&amp;" "&amp;BP131&amp;" "&amp;BP132&amp;" "&amp;BQ131&amp;" "&amp;BQ132)),1))&amp;RIGHT(TRIM(IF(BD127=0,"không đồng.",BF131&amp;" "&amp;BF132&amp;" "&amp;BG131&amp;" "&amp;BG132&amp;" "&amp;BH131&amp;" "&amp;BH132&amp;" "&amp;BI131&amp;" "&amp;BI132&amp;" "&amp;BJ131&amp;" "&amp;BJ132&amp;" "&amp;BK131&amp;" "&amp;BK132&amp;" "&amp;BL131&amp;" "&amp;BL132&amp;" "&amp;BM131&amp;" "&amp;BM132&amp;" "&amp;BN131&amp;" "&amp;BN132&amp;" "&amp;BO131&amp;" "&amp;BO132&amp;" "&amp;BP131&amp;" "&amp;BP132&amp;" "&amp;BQ131&amp;" "&amp;BQ132)),LEN(TRIM(IF(BD127=0,"không đồng.",BF131&amp;" "&amp;BF132&amp;" "&amp;BG131&amp;" "&amp;BG132&amp;" "&amp;BH131&amp;" "&amp;BH132&amp;" "&amp;BI131&amp;" "&amp;BI132&amp;" "&amp;BJ131&amp;" "&amp;BJ132&amp;" "&amp;BK131&amp;" "&amp;BK132&amp;" "&amp;BL131&amp;" "&amp;BL132&amp;" "&amp;BM131&amp;" "&amp;BM132&amp;" "&amp;BN131&amp;" "&amp;BN132&amp;" "&amp;BO131&amp;" "&amp;BO132&amp;" "&amp;BP131&amp;" "&amp;BP132&amp;" "&amp;BQ131&amp;" "&amp;BQ132)))-1)</f>
@@ -2486,7 +2482,7 @@
       <c r="BP133" s="20"/>
       <c r="BQ133" s="20"/>
     </row>
-    <row r="134" spans="56:69" ht="15" hidden="1">
+    <row r="134" spans="56:69" ht="13.8" hidden="1">
       <c r="BD134" s="17"/>
       <c r="BE134" s="17"/>
       <c r="BF134" s="17"/>
@@ -2502,7 +2498,7 @@
       <c r="BP134" s="17"/>
       <c r="BQ134" s="17"/>
     </row>
-    <row r="135" spans="56:69" ht="15" hidden="1">
+    <row r="135" spans="56:69" ht="13.8" hidden="1">
       <c r="BD135" s="17"/>
       <c r="BE135" s="17"/>
       <c r="BF135" s="17"/>
@@ -2801,10 +2797,26 @@
     <row r="416"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A11:I35">
+  <autoFilter ref="A11:I35" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="32">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="F28:G34"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="C28:E34"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="H28:I34"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="B9:C10"/>
@@ -2821,25 +2833,9 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F28:G34"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="C28:E34"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <dataValidations xWindow="1190" yWindow="356" count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Excel.webkynang.vn" prompt="Mạng xã hội học excel hàng đầu Việt Nam" sqref="C26 F26:I26 F1:F2 G8:G25 E4:E25 F8:F25 J1:XFD1048576 C35:C1048576 C1:D25 E1:E2 H1:I25 G1:G6 F4:F6 H35:H1048576 I27 I35:I1048576 H27:H28 G35:G1048576 F35:F1048576 F27 D35:D1048576 B35:B1048576 D27 C27:C28 A1:A1048576 B1:B28 E27 E35:E1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Excel.webkynang.vn" prompt="Mạng xã hội học excel hàng đầu Việt Nam" sqref="C26 F26:I26 F1:F2 G8:G25 E4:E25 F8:F25 J1:XFD1048576 C35:C1048576 C1:D25 E1:E2 H1:I25 G1:G6 F4:F6 H35:H1048576 I27 I35:I1048576 H27:H28 G35:G1048576 F35:F1048576 F27 D35:D1048576 B35:B1048576 D27 C27:C28 A1:A1048576 B1:B28 E27 E35:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
